--- a/biology/Médecine/1707_en_santé_et_médecine/1707_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1707_en_santé_et_médecine/1707_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1707_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1707_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1707 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1707_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1707_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>France
-18 mars : Louis XIV promulgue l'Édit de Marly, portant règlement pour l'étude et l'exercice de la médecine[1].
-En 1706-1707, une épidémie de dysenterie provoque d’importantes surmortalités notamment dans le Maine, en Anjou et dans le Haut-Poitou[2].</t>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 mars : Louis XIV promulgue l'Édit de Marly, portant règlement pour l'étude et l'exercice de la médecine.
+En 1706-1707, une épidémie de dysenterie provoque d’importantes surmortalités notamment dans le Maine, en Anjou et dans le Haut-Poitou.</t>
         </is>
       </c>
     </row>
@@ -525,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1707_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1707_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +560,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Floyer, dans The physician's pulse watch, introduit le compte du pouls durant une minute ; il est l'inventeur d'une montre à cet effet[3].
-Giovanni Maria Lancisi publie De subitaneis mortibus : libri duo, un des premiers ouvrages en cardiologie[4].
-Georg Ernst Stahl publie la Theoria medica vera, physiologiam et pathologiam tanquam doctrinae medicae partes vere contemplativas, et naturae et artis veris fundamentis intaminata ratione et inconcussa experientia sistens[5].
-Pierre Dionis publie son ouvrage intitulé Cours d'opérations de chirurgie, démontrées au Jardin royal[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Floyer, dans The physician's pulse watch, introduit le compte du pouls durant une minute ; il est l'inventeur d'une montre à cet effet.
+Giovanni Maria Lancisi publie De subitaneis mortibus : libri duo, un des premiers ouvrages en cardiologie.
+Georg Ernst Stahl publie la Theoria medica vera, physiologiam et pathologiam tanquam doctrinae medicae partes vere contemplativas, et naturae et artis veris fundamentis intaminata ratione et inconcussa experientia sistens.
+Pierre Dionis publie son ouvrage intitulé Cours d'opérations de chirurgie, démontrées au Jardin royal,.</t>
         </is>
       </c>
     </row>
@@ -558,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1707_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1707_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,13 +595,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>28 février : Johann Christian Senckenberg (mort en 1772), médecin allemand[8].
-10 avril : John Pringle (mort en 1782), médecin écossais[9].
-23 mai (13 mai du calendrier suédois) : Carl von Linné (mort en 1778), médecin naturaliste suédois[10].
-12 août : Hyacinthe Théodore Baron (mort en 1787), médecin militaire et bibliophile français[11].
-22 décembre : Johann Amman (mort en 1741), médecin et botaniste suisse[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>28 février : Johann Christian Senckenberg (mort en 1772), médecin allemand.
+10 avril : John Pringle (mort en 1782), médecin écossais.
+23 mai (13 mai du calendrier suédois) : Carl von Linné (mort en 1778), médecin naturaliste suédois.
+12 août : Hyacinthe Théodore Baron (mort en 1787), médecin militaire et bibliophile français.
+22 décembre : Johann Amman (mort en 1741), médecin et botaniste suisse.</t>
         </is>
       </c>
     </row>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1707_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1707_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,11 +631,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>24 avril : Walter Charleton (né en 1619), médecin et naturaliste britannique, médecin de Charles Ier[13].
-15 juin : Giorgio Baglivi (né en 1668), médecin italien[14].
-15 novembre : Denis Dodart (né en 1634), médecin et botaniste de l'Académie des Sciences[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>24 avril : Walter Charleton (né en 1619), médecin et naturaliste britannique, médecin de Charles Ier.
+15 juin : Giorgio Baglivi (né en 1668), médecin italien.
+15 novembre : Denis Dodart (né en 1634), médecin et botaniste de l'Académie des Sciences.</t>
         </is>
       </c>
     </row>
